--- a/data/trans_orig/P13A1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P13A1_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCEB34AA-1FD7-4E1B-8E2B-D4E3A2F6ACB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1D410C9-A0E9-4D81-9157-C5CA1E9A6353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C57D1E77-7022-4130-8F7F-F509EC3F9613}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3F098F61-510F-4A20-B62E-D09E99E8AAFB}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -77,7 +77,7 @@
     <t>77,69%</t>
   </si>
   <si>
-    <t>38,11%</t>
+    <t>33,71%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -92,7 +92,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>61,89%</t>
+    <t>66,29%</t>
   </si>
   <si>
     <t>100%</t>
@@ -107,13 +107,13 @@
     <t>88,72%</t>
   </si>
   <si>
-    <t>51,33%</t>
+    <t>53,64%</t>
   </si>
   <si>
     <t>92,3%</t>
   </si>
   <si>
-    <t>62,25%</t>
+    <t>65,58%</t>
   </si>
   <si>
     <t>0%</t>
@@ -125,13 +125,13 @@
     <t>11,28%</t>
   </si>
   <si>
-    <t>48,67%</t>
+    <t>46,36%</t>
   </si>
   <si>
     <t>7,7%</t>
   </si>
   <si>
-    <t>37,75%</t>
+    <t>34,42%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -143,13 +143,13 @@
     <t>99,15%</t>
   </si>
   <si>
-    <t>95,32%</t>
+    <t>95,59%</t>
   </si>
   <si>
     <t>99,38%</t>
   </si>
   <si>
-    <t>97,07%</t>
+    <t>96,63%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -158,13 +158,13 @@
     <t>0,85%</t>
   </si>
   <si>
-    <t>4,68%</t>
+    <t>4,41%</t>
   </si>
   <si>
     <t>0,62%</t>
   </si>
   <si>
-    <t>2,93%</t>
+    <t>3,37%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -176,13 +176,13 @@
     <t>96,86%</t>
   </si>
   <si>
-    <t>88,57%</t>
+    <t>90,48%</t>
   </si>
   <si>
     <t>97,29%</t>
   </si>
   <si>
-    <t>90,47%</t>
+    <t>91,85%</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -191,13 +191,13 @@
     <t>3,14%</t>
   </si>
   <si>
-    <t>11,43%</t>
+    <t>9,52%</t>
   </si>
   <si>
     <t>2,71%</t>
   </si>
   <si>
-    <t>9,53%</t>
+    <t>8,15%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -209,13 +209,13 @@
     <t>97,26%</t>
   </si>
   <si>
-    <t>91,0%</t>
+    <t>89,67%</t>
   </si>
   <si>
     <t>97,92%</t>
   </si>
   <si>
-    <t>92,2%</t>
+    <t>93,47%</t>
   </si>
   <si>
     <t>14,51%</t>
@@ -224,13 +224,13 @@
     <t>2,74%</t>
   </si>
   <si>
-    <t>9,0%</t>
+    <t>10,33%</t>
   </si>
   <si>
     <t>2,08%</t>
   </si>
   <si>
-    <t>7,8%</t>
+    <t>6,53%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -242,13 +242,13 @@
     <t>96,79%</t>
   </si>
   <si>
-    <t>88,68%</t>
+    <t>88,81%</t>
   </si>
   <si>
     <t>97,39%</t>
   </si>
   <si>
-    <t>90,68%</t>
+    <t>90,85%</t>
   </si>
   <si>
     <t>12,61%</t>
@@ -257,13 +257,13 @@
     <t>3,21%</t>
   </si>
   <si>
-    <t>11,32%</t>
+    <t>11,19%</t>
   </si>
   <si>
     <t>2,61%</t>
   </si>
   <si>
-    <t>9,32%</t>
+    <t>9,15%</t>
   </si>
   <si>
     <t>95,56%</t>
@@ -272,10 +272,10 @@
     <t>94,54%</t>
   </si>
   <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
   </si>
   <si>
     <t>95,57%</t>
@@ -284,7 +284,7 @@
     <t>90,23%</t>
   </si>
   <si>
-    <t>97,79%</t>
+    <t>98,14%</t>
   </si>
   <si>
     <t>4,44%</t>
@@ -293,16 +293,16 @@
     <t>5,46%</t>
   </si>
   <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
   </si>
   <si>
     <t>4,43%</t>
   </si>
   <si>
-    <t>2,21%</t>
+    <t>1,86%</t>
   </si>
   <si>
     <t>9,77%</t>
@@ -720,7 +720,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{307002D6-F594-4047-8EE5-7AD352CE2954}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F149B09-F618-4DB6-A264-BFC9BF1667C2}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P13A1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P13A1_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1D410C9-A0E9-4D81-9157-C5CA1E9A6353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5769190B-E2DC-4D30-9CFC-6908D87AC8E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3F098F61-510F-4A20-B62E-D09E99E8AAFB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D14E3B30-2487-4CBD-AE5D-2C5BE406A49E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -720,7 +720,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F149B09-F618-4DB6-A264-BFC9BF1667C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B42441B-C278-473A-BF69-0A926BCBB61B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P13A1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P13A1_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5769190B-E2DC-4D30-9CFC-6908D87AC8E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3623C246-FB0D-495C-9975-CF98D2E5817F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D14E3B30-2487-4CBD-AE5D-2C5BE406A49E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E2AF2C13-1AA7-4547-B8DC-BE480178BCE2}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -77,7 +77,7 @@
     <t>77,69%</t>
   </si>
   <si>
-    <t>33,71%</t>
+    <t>38,11%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -92,7 +92,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>66,29%</t>
+    <t>61,89%</t>
   </si>
   <si>
     <t>100%</t>
@@ -107,13 +107,13 @@
     <t>88,72%</t>
   </si>
   <si>
-    <t>53,64%</t>
+    <t>51,33%</t>
   </si>
   <si>
     <t>92,3%</t>
   </si>
   <si>
-    <t>65,58%</t>
+    <t>62,25%</t>
   </si>
   <si>
     <t>0%</t>
@@ -125,13 +125,13 @@
     <t>11,28%</t>
   </si>
   <si>
-    <t>46,36%</t>
+    <t>48,67%</t>
   </si>
   <si>
     <t>7,7%</t>
   </si>
   <si>
-    <t>34,42%</t>
+    <t>37,75%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -143,13 +143,13 @@
     <t>99,15%</t>
   </si>
   <si>
-    <t>95,59%</t>
+    <t>95,32%</t>
   </si>
   <si>
     <t>99,38%</t>
   </si>
   <si>
-    <t>96,63%</t>
+    <t>97,07%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -158,13 +158,13 @@
     <t>0,85%</t>
   </si>
   <si>
-    <t>4,41%</t>
+    <t>4,68%</t>
   </si>
   <si>
     <t>0,62%</t>
   </si>
   <si>
-    <t>3,37%</t>
+    <t>2,93%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -176,13 +176,13 @@
     <t>96,86%</t>
   </si>
   <si>
-    <t>90,48%</t>
+    <t>88,57%</t>
   </si>
   <si>
     <t>97,29%</t>
   </si>
   <si>
-    <t>91,85%</t>
+    <t>90,47%</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -191,13 +191,13 @@
     <t>3,14%</t>
   </si>
   <si>
-    <t>9,52%</t>
+    <t>11,43%</t>
   </si>
   <si>
     <t>2,71%</t>
   </si>
   <si>
-    <t>8,15%</t>
+    <t>9,53%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -209,13 +209,13 @@
     <t>97,26%</t>
   </si>
   <si>
-    <t>89,67%</t>
+    <t>91,0%</t>
   </si>
   <si>
     <t>97,92%</t>
   </si>
   <si>
-    <t>93,47%</t>
+    <t>92,2%</t>
   </si>
   <si>
     <t>14,51%</t>
@@ -224,13 +224,13 @@
     <t>2,74%</t>
   </si>
   <si>
-    <t>10,33%</t>
+    <t>9,0%</t>
   </si>
   <si>
     <t>2,08%</t>
   </si>
   <si>
-    <t>6,53%</t>
+    <t>7,8%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -242,13 +242,13 @@
     <t>96,79%</t>
   </si>
   <si>
-    <t>88,81%</t>
+    <t>88,68%</t>
   </si>
   <si>
     <t>97,39%</t>
   </si>
   <si>
-    <t>90,85%</t>
+    <t>90,68%</t>
   </si>
   <si>
     <t>12,61%</t>
@@ -257,13 +257,13 @@
     <t>3,21%</t>
   </si>
   <si>
-    <t>11,19%</t>
+    <t>11,32%</t>
   </si>
   <si>
     <t>2,61%</t>
   </si>
   <si>
-    <t>9,15%</t>
+    <t>9,32%</t>
   </si>
   <si>
     <t>95,56%</t>
@@ -272,10 +272,10 @@
     <t>94,54%</t>
   </si>
   <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
   </si>
   <si>
     <t>95,57%</t>
@@ -284,7 +284,7 @@
     <t>90,23%</t>
   </si>
   <si>
-    <t>98,14%</t>
+    <t>97,79%</t>
   </si>
   <si>
     <t>4,44%</t>
@@ -293,16 +293,16 @@
     <t>5,46%</t>
   </si>
   <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
   </si>
   <si>
     <t>4,43%</t>
   </si>
   <si>
-    <t>1,86%</t>
+    <t>2,21%</t>
   </si>
   <si>
     <t>9,77%</t>
@@ -720,7 +720,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B42441B-C278-473A-BF69-0A926BCBB61B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA84821F-6120-49C0-A778-455FE2D494CF}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P13A1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P13A1_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3623C246-FB0D-495C-9975-CF98D2E5817F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE8EC9B6-38C2-4E52-BF75-4678D7CCB2CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E2AF2C13-1AA7-4547-B8DC-BE480178BCE2}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{320669ED-6FCA-4DDA-9164-41690D83117B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="96">
   <si>
     <t>Población que sufre dolor de cabeza desde hace mas de 3 meses en 2023 (Tasa respuesta: 3,1%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -74,10 +74,10 @@
     <t>—%</t>
   </si>
   <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -86,34 +86,34 @@
     <t>No</t>
   </si>
   <si>
-    <t>22,31%</t>
+    <t>22,54%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>61,89%</t>
+    <t>62,0%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>63,75%</t>
   </si>
   <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>62,25%</t>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
   </si>
   <si>
     <t>0%</t>
@@ -122,190 +122,205 @@
     <t>36,25%</t>
   </si>
   <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>35/44</t>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>35-44</t>
   </si>
   <si>
     <t>69,43%</t>
   </si>
   <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
   </si>
   <si>
     <t>30,57%</t>
   </si>
   <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>45/54</t>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>45-54</t>
   </si>
   <si>
     <t>76,75%</t>
   </si>
   <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
   </si>
   <si>
     <t>23,25%</t>
   </si>
   <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>55/64</t>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>55-64</t>
   </si>
   <si>
     <t>85,49%</t>
   </si>
   <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
   </si>
   <si>
     <t>14,51%</t>
   </si>
   <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
   </si>
   <si>
     <t>95,56%</t>
   </si>
   <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
   </si>
   <si>
     <t>4,44%</t>
   </si>
   <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -720,8 +735,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA84821F-6120-49C0-A778-455FE2D494CF}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C2633F-937A-4E88-AEAE-BF5168E93519}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -854,7 +869,7 @@
         <v>7</v>
       </c>
       <c r="I4" s="7">
-        <v>14746</v>
+        <v>12765</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>12</v>
@@ -869,7 +884,7 @@
         <v>7</v>
       </c>
       <c r="N4" s="7">
-        <v>14746</v>
+        <v>12765</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>12</v>
@@ -903,7 +918,7 @@
         <v>2</v>
       </c>
       <c r="I5" s="7">
-        <v>4233</v>
+        <v>3715</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>16</v>
@@ -918,7 +933,7 @@
         <v>2</v>
       </c>
       <c r="N5" s="7">
-        <v>4233</v>
+        <v>3715</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>16</v>
@@ -952,7 +967,7 @@
         <v>9</v>
       </c>
       <c r="I6" s="7">
-        <v>18979</v>
+        <v>16480</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -967,7 +982,7 @@
         <v>9</v>
       </c>
       <c r="N6" s="7">
-        <v>18979</v>
+        <v>16480</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -990,7 +1005,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>4520</v>
+        <v>4434</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>14</v>
@@ -1005,7 +1020,7 @@
         <v>9</v>
       </c>
       <c r="I7" s="7">
-        <v>8619</v>
+        <v>7713</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>22</v>
@@ -1020,7 +1035,7 @@
         <v>13</v>
       </c>
       <c r="N7" s="7">
-        <v>13138</v>
+        <v>12147</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>24</v>
@@ -1056,7 +1071,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>1096</v>
+        <v>1106</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>28</v>
@@ -1071,7 +1086,7 @@
         <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>1096</v>
+        <v>1106</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>30</v>
@@ -1092,7 +1107,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="7">
-        <v>4520</v>
+        <v>4434</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -1107,7 +1122,7 @@
         <v>10</v>
       </c>
       <c r="I9" s="7">
-        <v>9715</v>
+        <v>8819</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -1122,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="N9" s="7">
-        <v>14234</v>
+        <v>13253</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -1145,7 +1160,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>6962</v>
+        <v>6979</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>14</v>
@@ -1160,7 +1175,7 @@
         <v>26</v>
       </c>
       <c r="I10" s="7">
-        <v>18542</v>
+        <v>17497</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>34</v>
@@ -1175,7 +1190,7 @@
         <v>31</v>
       </c>
       <c r="N10" s="7">
-        <v>25504</v>
+        <v>24476</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>36</v>
@@ -1211,7 +1226,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>39</v>
@@ -1226,7 +1241,7 @@
         <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>41</v>
@@ -1247,7 +1262,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="7">
-        <v>6962</v>
+        <v>6979</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -1262,7 +1277,7 @@
         <v>27</v>
       </c>
       <c r="I12" s="7">
-        <v>18702</v>
+        <v>17660</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -1277,7 +1292,7 @@
         <v>32</v>
       </c>
       <c r="N12" s="7">
-        <v>25664</v>
+        <v>24639</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -1300,7 +1315,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>7721</v>
+        <v>7234</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>14</v>
@@ -1315,13 +1330,13 @@
         <v>60</v>
       </c>
       <c r="I13" s="7">
-        <v>46521</v>
+        <v>41671</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>14</v>
@@ -1330,13 +1345,13 @@
         <v>67</v>
       </c>
       <c r="N13" s="7">
-        <v>54242</v>
+        <v>48905</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>14</v>
@@ -1360,37 +1375,37 @@
         <v>26</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
       </c>
       <c r="I14" s="7">
-        <v>1508</v>
+        <v>1354</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
       </c>
       <c r="N14" s="7">
-        <v>1508</v>
+        <v>1354</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1402,7 +1417,7 @@
         <v>7</v>
       </c>
       <c r="D15" s="7">
-        <v>7721</v>
+        <v>7234</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -1417,7 +1432,7 @@
         <v>62</v>
       </c>
       <c r="I15" s="7">
-        <v>48029</v>
+        <v>43025</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -1432,7 +1447,7 @@
         <v>69</v>
       </c>
       <c r="N15" s="7">
-        <v>55750</v>
+        <v>50259</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -1446,7 +1461,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1455,13 +1470,13 @@
         <v>12</v>
       </c>
       <c r="D16" s="7">
-        <v>10589</v>
+        <v>10183</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>19</v>
@@ -1470,13 +1485,13 @@
         <v>52</v>
       </c>
       <c r="I16" s="7">
-        <v>32313</v>
+        <v>29562</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>14</v>
@@ -1485,13 +1500,13 @@
         <v>64</v>
       </c>
       <c r="N16" s="7">
-        <v>42903</v>
+        <v>39745</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>14</v>
@@ -1515,37 +1530,37 @@
         <v>26</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
       </c>
       <c r="I17" s="7">
-        <v>911</v>
+        <v>856</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
       </c>
       <c r="N17" s="7">
-        <v>911</v>
+        <v>856</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1557,7 +1572,7 @@
         <v>12</v>
       </c>
       <c r="D18" s="7">
-        <v>10589</v>
+        <v>10183</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -1572,7 +1587,7 @@
         <v>54</v>
       </c>
       <c r="I18" s="7">
-        <v>33224</v>
+        <v>30418</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -1587,7 +1602,7 @@
         <v>66</v>
       </c>
       <c r="N18" s="7">
-        <v>43814</v>
+        <v>40601</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -1601,55 +1616,55 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D19" s="7">
-        <v>9062</v>
+        <v>3946</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="7">
+        <v>31</v>
+      </c>
+      <c r="I19" s="7">
+        <v>16407</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M19" s="7">
+        <v>37</v>
+      </c>
+      <c r="N19" s="7">
+        <v>20353</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H19" s="7">
-        <v>65</v>
-      </c>
-      <c r="I19" s="7">
-        <v>38325</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M19" s="7">
-        <v>79</v>
-      </c>
-      <c r="N19" s="7">
-        <v>47387</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="Q19" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1670,37 +1685,37 @@
         <v>26</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H20" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>1272</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L20" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1272</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>74</v>
-      </c>
       <c r="P20" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1709,10 +1724,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D21" s="7">
-        <v>9062</v>
+        <v>3946</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -1724,10 +1739,10 @@
         <v>19</v>
       </c>
       <c r="H21" s="7">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="I21" s="7">
-        <v>39597</v>
+        <v>16407</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -1739,10 +1754,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="N21" s="7">
-        <v>48659</v>
+        <v>20353</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -1756,55 +1771,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D22" s="7">
-        <v>38855</v>
+        <v>4618</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H22" s="7">
-        <v>219</v>
+        <v>34</v>
       </c>
       <c r="I22" s="7">
-        <v>159066</v>
+        <v>17878</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="M22" s="7">
-        <v>261</v>
+        <v>42</v>
       </c>
       <c r="N22" s="7">
-        <v>197921</v>
+        <v>22496</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1825,37 +1840,37 @@
         <v>26</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H23" s="7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I23" s="7">
-        <v>9180</v>
+        <v>1146</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="M23" s="7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N23" s="7">
-        <v>9180</v>
+        <v>1146</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1864,63 +1879,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>8</v>
+      </c>
+      <c r="D24" s="7">
+        <v>4618</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="7">
+        <v>36</v>
+      </c>
+      <c r="I24" s="7">
+        <v>19024</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>44</v>
+      </c>
+      <c r="N24" s="7">
+        <v>23642</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
         <v>42</v>
       </c>
-      <c r="D24" s="7">
-        <v>38855</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D25" s="7">
+        <v>37393</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="7">
+        <v>219</v>
+      </c>
+      <c r="I25" s="7">
+        <v>143494</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M25" s="7">
+        <v>261</v>
+      </c>
+      <c r="N25" s="7">
+        <v>180887</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H26" s="7">
+        <v>10</v>
+      </c>
+      <c r="I26" s="7">
+        <v>8340</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M26" s="7">
+        <v>10</v>
+      </c>
+      <c r="N26" s="7">
+        <v>8340</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>42</v>
+      </c>
+      <c r="D27" s="7">
+        <v>37393</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="7">
         <v>229</v>
       </c>
-      <c r="I24" s="7">
-        <v>168246</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>151834</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
         <v>271</v>
       </c>
-      <c r="N24" s="7">
-        <v>207101</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>90</v>
+      <c r="N27" s="7">
+        <v>189227</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
